--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-112397.1475791092</v>
+        <v>-115300.6891915789</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8656875.781858979</v>
+        <v>8656875.781858983</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>225.3976351544573</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>170.0340402979679</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>53.54503894745471</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>90.54200888609302</v>
       </c>
     </row>
     <row r="3">
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>208.3423105940807</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>9.461970681989245</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>192.9479392882704</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>16.60557849018839</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>18.74104475512553</v>
       </c>
       <c r="F7" t="n">
-        <v>25.31590541686235</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>25.30758686808378</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>232.1354336439963</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>132.9342137328512</v>
       </c>
       <c r="X10" t="n">
-        <v>61.61413745350039</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>111.5162079902393</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>113.3018991922775</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1664,7 +1664,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>72.76353482008373</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>20.84901245549815</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2005,22 +2005,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>113.5103646250815</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>155.8922282799057</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292623</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247756</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734100762</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.3524204098382</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004747</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>272.0369277816393</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>120.0858637899139</v>
       </c>
     </row>
     <row r="23">
@@ -2333,10 +2333,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292623</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247756</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734100762</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>203.4068132191997</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>95.12712756824217</v>
+        <v>37.586232500086</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>222.8161206669571</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577715</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1440.432503166563</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="C2" t="n">
-        <v>1440.432503166563</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1827.032343230685</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1827.032343230685</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1827.032343230685</v>
+        <v>1218.258344226938</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="T4" t="n">
-        <v>352.67413830922</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="U4" t="n">
-        <v>63.50052796378793</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1954.141365880777</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="C5" t="n">
-        <v>1954.141365880777</v>
+        <v>1094.711785517216</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>736.4460869104657</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>736.4460869104657</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>729.5005861612623</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2680.375779411972</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2680.375779411972</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2680.375779411972</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2680.375779411972</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2680.375779411972</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>2327.607124141857</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X5" t="n">
-        <v>1954.141365880777</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y5" t="n">
-        <v>1954.141365880777</v>
+        <v>1463.674302457628</v>
       </c>
     </row>
     <row r="6">
@@ -4659,10 +4659,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482876</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359519</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="E7" t="n">
-        <v>79.51460345355875</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1061.921889775366</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C8" t="n">
-        <v>1061.921889775366</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>1061.921889775366</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
         <v>1036.358670716696</v>
@@ -4799,16 +4799,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,10 +4820,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2153.87838018277</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>2153.87838018277</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.661061815299</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="Y8" t="n">
-        <v>1448.521729839488</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.7458231623355</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C10" t="n">
-        <v>517.7458231623355</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
         <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406187</v>
+        <v>593.8520006378978</v>
       </c>
       <c r="X10" t="n">
-        <v>517.7458231623355</v>
+        <v>593.8520006378978</v>
       </c>
       <c r="Y10" t="n">
-        <v>517.7458231623355</v>
+        <v>373.0594214943678</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5024,7 +5024,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
@@ -5036,55 +5036,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1065.602396166312</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="C13" t="n">
-        <v>896.6662132384056</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D13" t="n">
-        <v>746.5495738260698</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E13" t="n">
-        <v>598.6364802436767</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F13" t="n">
-        <v>451.7465327457663</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V13" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W13" t="n">
-        <v>1475.240411894569</v>
+        <v>1338.614146438102</v>
       </c>
       <c r="X13" t="n">
-        <v>1247.250860996552</v>
+        <v>1110.624595540085</v>
       </c>
       <c r="Y13" t="n">
-        <v>1247.250860996552</v>
+        <v>889.8320163965544</v>
       </c>
     </row>
     <row r="14">
@@ -5279,16 +5279,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M14" t="n">
-        <v>2782.232616025903</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N14" t="n">
-        <v>3573.001456870722</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
         <v>4075.973927750058</v>
@@ -5315,7 +5315,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5361,34 +5361,34 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.9597618327374</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C16" t="n">
-        <v>784.0235789048305</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D16" t="n">
-        <v>633.9069394924948</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E16" t="n">
-        <v>485.9938459101016</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1691.159061911243</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U16" t="n">
-        <v>1691.159061911243</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V16" t="n">
-        <v>1691.159061911243</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="W16" t="n">
-        <v>1401.741891874283</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X16" t="n">
-        <v>1173.752340976265</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y16" t="n">
-        <v>952.9597618327355</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="17">
@@ -5492,49 +5492,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972665</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807097</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5552,7 +5552,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5613,7 +5613,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,7 +5622,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
         <v>2043.809373447819</v>
@@ -5631,7 +5631,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>784.0235789048305</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="C19" t="n">
-        <v>784.0235789048305</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="D19" t="n">
-        <v>633.9069394924948</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="E19" t="n">
-        <v>485.9938459101016</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="F19" t="n">
-        <v>339.1038984121913</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5674,16 +5674,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
         <v>1646.12566951853</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.240599230348</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1412.556111024461</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>1123.1389409875</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>965.6720437350702</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>965.6720437350702</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H20" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277723</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563071</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811479</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483402</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542183</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232735</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.49719767968</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5814,43 +5814,43 @@
         <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390114</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193579</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320224</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454337</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008791</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426845</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902947</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1120.662598458019</v>
+        <v>659.8526275526848</v>
       </c>
       <c r="C22" t="n">
-        <v>951.7264155301117</v>
+        <v>490.9164446247779</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177759</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353828</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374724</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121914</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300492</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442058</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927015</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518527</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862228</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862228</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1866.513008862228</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U22" t="n">
-        <v>1591.728233325219</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V22" t="n">
-        <v>1591.728233325219</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W22" t="n">
-        <v>1302.311063288258</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="X22" t="n">
-        <v>1302.311063288258</v>
+        <v>962.7999446959689</v>
       </c>
       <c r="Y22" t="n">
-        <v>1302.311063288258</v>
+        <v>841.5010923829245</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277723</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563071</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1898.858917622695</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294618</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353399</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232735</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.49719767968</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,64 +6042,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939018</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193645</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232029</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454344</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008797</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426851</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6145,40 +6145,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442058</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927015</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518527</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931527</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
         <v>1015.408799357142</v>
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6236,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6306,22 +6306,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1550.665004989558</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6783,19 +6783,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="35">
@@ -6926,37 +6926,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7017,19 +7017,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>221.3431781811715</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7309,19 +7309,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7400,13 +7400,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,13 +7418,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N42" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075811</v>
@@ -7728,19 +7728,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7825,7 +7825,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -7834,22 +7834,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783517</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>229.1155640189926</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,19 +8927,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>246.454569480845</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9164,22 +9164,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400235</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>315.167921710932</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>189.7998007892644</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476932</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>344.7025836476935</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>295.6959297699583</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>295.6959297699606</v>
       </c>
     </row>
     <row r="3">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>54.5096002687889</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004545</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -23476,13 +23476,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>173.2210991443135</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983621</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>146.7854144560854</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -23713,7 +23713,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>265.6739858810928</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-5.219052476067773e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>52.51544363394669</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>69.81742710913142</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>14.17491042397359</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>98.4987895621809</v>
       </c>
     </row>
     <row r="23">
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.3524204098382</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004747</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>16.14213605696949</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>72.11969353038566</v>
+        <v>129.6605885985418</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>63.36835372228703</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>10.85445046951673</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1158573.880797181</v>
+        <v>1158573.88079718</v>
       </c>
     </row>
     <row r="3">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>299064.1401954732</v>
+        <v>299064.140195473</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991065</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991065</v>
       </c>
       <c r="E2" t="n">
-        <v>297811.3401652377</v>
+        <v>297811.3401652375</v>
       </c>
       <c r="F2" t="n">
-        <v>297811.3401652375</v>
+        <v>297811.3401652376</v>
       </c>
       <c r="G2" t="n">
         <v>297811.3401652375</v>
       </c>
       <c r="H2" t="n">
-        <v>297811.3401652373</v>
+        <v>297811.3401652376</v>
       </c>
       <c r="I2" t="n">
         <v>297811.3401652374</v>
@@ -26344,7 +26344,7 @@
         <v>302679.9748837522</v>
       </c>
       <c r="M2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837521</v>
       </c>
       <c r="N2" t="n">
         <v>302679.9748837522</v>
@@ -26353,7 +26353,7 @@
         <v>302679.9748837522</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991059</v>
+        <v>307890.663699106</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.434074986013002e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>727377.4139934066</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>376527.1335735929</v>
+        <v>376527.1335735914</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
         <v>129642.3148389447</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187630.1352407913</v>
+        <v>187630.1352407912</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
         <v>25090.72367499381</v>
@@ -26430,19 +26430,19 @@
         <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499394</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499395</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.59260167043</v>
+        <v>5067.59260167046</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670441</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
         <v>5067.592601670438</v>
@@ -26451,10 +26451,10 @@
         <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670458</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="P4" t="n">
         <v>13058.45186476391</v>
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
@@ -26485,10 +26485,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-561392.952323272</v>
+        <v>-561451.7958132962</v>
       </c>
       <c r="C6" t="n">
-        <v>23967.07970796531</v>
+        <v>23967.07970796552</v>
       </c>
       <c r="D6" t="n">
-        <v>23967.0797079652</v>
+        <v>23967.07970796546</v>
       </c>
       <c r="E6" t="n">
-        <v>-551040.3157568764</v>
+        <v>-551107.5112471023</v>
       </c>
       <c r="F6" t="n">
-        <v>176337.09823653</v>
+        <v>176269.9027463043</v>
       </c>
       <c r="G6" t="n">
-        <v>176337.0982365299</v>
+        <v>176269.9027463042</v>
       </c>
       <c r="H6" t="n">
-        <v>176337.0982365313</v>
+        <v>176269.9027463043</v>
       </c>
       <c r="I6" t="n">
-        <v>176337.0982365298</v>
+        <v>176269.9027463042</v>
       </c>
       <c r="J6" t="n">
-        <v>-180037.2811154182</v>
+        <v>-180072.0190408525</v>
       </c>
       <c r="K6" t="n">
-        <v>196489.8524581749</v>
+        <v>196455.1145327389</v>
       </c>
       <c r="L6" t="n">
-        <v>196489.8524581747</v>
+        <v>196455.1145327388</v>
       </c>
       <c r="M6" t="n">
-        <v>66847.53761922992</v>
+        <v>66812.79969379411</v>
       </c>
       <c r="N6" t="n">
-        <v>196489.8524581746</v>
+        <v>196455.1145327392</v>
       </c>
       <c r="O6" t="n">
-        <v>196489.8524581746</v>
+        <v>196455.1145327389</v>
       </c>
       <c r="P6" t="n">
-        <v>172240.3779867948</v>
+        <v>172240.3779867949</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,13 +26750,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26963,31 +26963,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>278.1987997483754</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-8.524144395468394e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>278.1987997483775</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-2.273736754432321e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>157.3362065090233</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>184.649001322715</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>3.80322835593816</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>242.6756726418388</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>220.8362307325246</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.87282408462333</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,7 +27673,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>127.6929178914436</v>
       </c>
       <c r="F7" t="n">
-        <v>120.1051426060689</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>356.622783204178</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>95.61682482613861</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.5887846037398</v>
       </c>
       <c r="X10" t="n">
-        <v>164.0955179355367</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28482,28 +28482,28 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>1.885306725550132e-12</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31516,10 +31516,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32087,7 +32087,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681591</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.8670377284466</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974797</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953982</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.28113760038</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623182</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574981</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095011</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099046</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746403</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781682</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563564</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806935</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451117</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345272</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502563</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798528</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752244</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026434</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353151</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138788</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233465</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837915</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970241</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987549</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905539</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238309</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898482</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462213</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311877</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742009</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297388</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702021</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098815</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316427</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.724773788311</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023085996</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802165</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895878</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712201</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.2475727055303</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112282</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780293</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681591</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.8670377284466</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974797</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953982</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.28113760038</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623182</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574981</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095011</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099046</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746403</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781682</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563564</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806935</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451117</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345272</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502563</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798528</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752244</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026501</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353151</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138788</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233465</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837915</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970241</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987482</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905539</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238309</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898482</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462213</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311877</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742009</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9375967297388</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702021</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098815</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316427</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.724773788311</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023085996</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802165</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895878</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712201</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.2475727055303</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112282</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780293</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M27" t="n">
-        <v>433.9798411722585</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>279.2419622547056</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>266.6561007250657</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,22 +34208,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>485.1127032082914</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,13 +34457,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>171.7382405950817</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>737.1685649072117</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>798.7564048937564</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35735,7 +35735,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282428</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>713.9299079303039</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859626</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407857</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265642</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923309</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302254</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129101</v>
+        <v>742.1016362021759</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359111</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908533</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636234</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152068</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597674</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609561</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340046</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013282</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004582</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525797</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127334</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.578416613066</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443192</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701976</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934833</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675396</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226393</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.95707114511</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789337</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407857</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265642</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>800.2926980400244</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302254</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129101</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882179</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908533</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636234</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152068</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453598336</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609561</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340046</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013282</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004582</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525797</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127267</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.578416613066</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443192</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701976</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934833</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675396</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226393</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.95707114511</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789337</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M27" t="n">
-        <v>291.8458072502402</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>342.516458763847</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,13 +38105,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>37.7638331807514</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
